--- a/planilha_teste2.xlsx
+++ b/planilha_teste2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igor.gomes\Documents\GitHub\automacao\plugin conciliador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igor.gomes\Documents\GitHub\automacao\plugin-conciliador\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -60,6 +60,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -338,8 +339,8 @@
   </sheetPr>
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="G61" sqref="A61:G61"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1850,7 +1851,7 @@
     </row>
     <row r="66" spans="1:7" ht="14">
       <c r="A66" s="3">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B66" s="6">
         <v>8</v>
